--- a/Ádám Mészáros - Tesztmenedzser.xlsx
+++ b/Ádám Mészáros - Tesztmenedzser.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arato\CC_projects\vizsgaremek\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arato\CC_projects\Vizsgaremek_notebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61013F7A-FCB1-470A-A524-74DE178269C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5956CE1-76F4-4FB0-93BD-13E26449880D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3756" yWindow="1620" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tesztesetek (test cases)" sheetId="1" r:id="rId1"/>
@@ -107,9 +107,6 @@
     <t>Sikeres regisztráció a weboldalra.</t>
   </si>
   <si>
-    <t>Feltelepített Google Chrome böngésző.</t>
-  </si>
-  <si>
     <t>Mészáros Ádám</t>
   </si>
   <si>
@@ -148,10 +145,6 @@
   </si>
   <si>
     <t>Sikertelen bejelentkezés a weboldalra érvényes regisztrált e-mail címmel, hibás jelszóval</t>
-  </si>
-  <si>
-    <t>Feltelepített Google Chrome böngésző.
-Regisztrált e-mail cím.</t>
   </si>
   <si>
     <t>1. A következő weboldal betöltése: https://www.notebook.hu/
@@ -365,6 +358,12 @@
     <t>A script* az első oldalon lévő termékek nevét és árát lementi egy txt filba (name_and_price.txt), majd ellenőrzi, hogy mindegyik név tartalmazza-e a "macbook" kifejezést.
 script*:
 FilterAppleNotebooksTest</t>
+  </si>
+  <si>
+    <t>-----</t>
+  </si>
+  <si>
+    <t>Regisztrált felhasználó.</t>
   </si>
 </sst>
 </file>
@@ -450,7 +449,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -473,6 +472,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1270,7 +1272,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
@@ -1350,26 +1352,26 @@
       <c r="C2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>28</v>
+      <c r="D2" s="9" t="s">
+        <v>88</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="H2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>12</v>
@@ -1394,31 +1396,31 @@
         <v>15</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G3" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="I3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>41</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="K3" s="6" t="s">
         <v>12</v>
@@ -1443,31 +1445,31 @@
         <v>16</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K4" s="6" t="s">
         <v>12</v>
@@ -1492,31 +1494,31 @@
         <v>17</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>12</v>
@@ -1541,31 +1543,31 @@
         <v>18</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>28</v>
+        <v>50</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>88</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J6" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>56</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>12</v>
@@ -1590,31 +1592,31 @@
         <v>19</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="F7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H7" s="7" t="s">
+      <c r="I7" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="I7" s="5" t="s">
-        <v>62</v>
-      </c>
       <c r="J7" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K7" s="6" t="s">
         <v>12</v>
@@ -1639,31 +1641,31 @@
         <v>20</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>28</v>
+        <v>62</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>88</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G8" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="H8" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>67</v>
-      </c>
       <c r="J8" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K8" s="6" t="s">
         <v>12</v>
@@ -1688,31 +1690,31 @@
         <v>21</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>28</v>
+        <v>67</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>88</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G9" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="H9" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>72</v>
-      </c>
       <c r="J9" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="K9" s="6" t="s">
         <v>12</v>
@@ -1737,31 +1739,31 @@
         <v>22</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>28</v>
+        <v>71</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>88</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G10" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="I10" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="H10" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>76</v>
-      </c>
       <c r="J10" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K10" s="6" t="s">
         <v>12</v>
@@ -1786,37 +1788,37 @@
         <v>23</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>28</v>
+        <v>76</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>88</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G11" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="I11" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="H11" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>81</v>
-      </c>
       <c r="J11" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K11" s="6" t="s">
         <v>12</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1837,37 +1839,37 @@
         <v>24</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>28</v>
+        <v>82</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>88</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>14</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G12" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="I12" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="H12" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>87</v>
-      </c>
       <c r="J12" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="K12" s="6" t="s">
         <v>12</v>
       </c>
       <c r="L12" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
